--- a/Excercise Plan.xlsx
+++ b/Excercise Plan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
   <si>
     <t>Squats</t>
   </si>
@@ -63,13 +63,53 @@
   </si>
   <si>
     <t>Run</t>
+  </si>
+  <si>
+    <t>Tricep Overhead</t>
+  </si>
+  <si>
+    <t>Lunges</t>
+  </si>
+  <si>
+    <t>Elbow Legraise</t>
+  </si>
+  <si>
+    <t>Legraises</t>
+  </si>
+  <si>
+    <t>Workout1</t>
+  </si>
+  <si>
+    <t>Workout2</t>
+  </si>
+  <si>
+    <t>Workout3</t>
+  </si>
+  <si>
+    <t>Run Light</t>
+  </si>
+  <si>
+    <t>Run Hard</t>
+  </si>
+  <si>
+    <t>Tricep Pulldown</t>
+  </si>
+  <si>
+    <t>Cable/Dumbell Row</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +120,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -99,7 +153,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -111,8 +165,23 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -120,23 +189,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="4" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -414,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.28515625" defaultRowHeight="63.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -425,53 +524,135 @@
     <col min="1" max="16384" width="22.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="F2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
